--- a/donations_multiple_regression_extended.xlsx
+++ b/donations_multiple_regression_extended.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 4\Tutorial 4.1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{212B68D0-490A-4A6A-B16F-53F8F0369AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C5CE28-3E8B-430C-A12A-0691544E37DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{FBBBAE23-5993-4623-B1F1-9F68AB421301}"/>
   </bookViews>
@@ -44,10 +44,10 @@
     <t>Shares</t>
   </si>
   <si>
-    <t>Marekting_Amount</t>
+    <t>Num_Email_Subscribers</t>
   </si>
   <si>
-    <t>Num_Email_Subscribers</t>
+    <t>Marketing_Amount</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
